--- a/REGULAR/RE-ENCODE/SEÑA,MARIYLN B..xlsx
+++ b/REGULAR/RE-ENCODE/SEÑA,MARIYLN B..xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
   <si>
     <t>PERIOD</t>
   </si>
@@ -348,6 +348,15 @@
   </si>
   <si>
     <t>DOMESTIC E. 1/18</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -723,8 +732,20 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -758,18 +779,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1219,7 +1228,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1262,7 +1271,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1326,7 +1335,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1386,7 +1395,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1452,7 +1461,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1515,7 +1524,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,7 +1622,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1672,7 +1681,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1737,7 +1746,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1780,7 +1789,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1855,7 +1864,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2050,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2107,7 +2116,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2165,7 +2174,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2231,7 +2240,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2287,7 +2296,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,7 +2371,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2405,7 +2414,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2471,7 +2480,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2527,7 +2536,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2625,7 +2634,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2688,7 +2697,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2754,7 +2763,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K151" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K154" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3120,7 +3129,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3132,87 +3141,87 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K151"/>
+  <dimension ref="A2:K154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A61" activePane="bottomLeft"/>
-      <selection activeCell="C9" sqref="C9"/>
-      <selection pane="bottomLeft" activeCell="J79" sqref="J79"/>
+      <pane ySplit="3690" topLeftCell="A120" activePane="bottomLeft"/>
+      <selection activeCell="B83" sqref="B83:B84"/>
+      <selection pane="bottomLeft" activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="60"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3220,7 +3229,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3233,24 +3242,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3285,7 +3294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3294,7 +3303,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>10.252999999999989</v>
+        <v>44.002999999999993</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3304,13 +3313,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>152.80000000000001</v>
+        <v>201.55</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="61" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="20"/>
@@ -3331,7 +3340,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>42005</v>
       </c>
@@ -3355,7 +3364,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>49</v>
@@ -3375,9 +3384,8 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
-        <f>EDATE(A11,1)</f>
         <v>42036</v>
       </c>
       <c r="B13" s="20"/>
@@ -3396,9 +3404,8 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
-        <f t="shared" ref="A14:A90" si="0">EDATE(A13,1)</f>
         <v>42064</v>
       </c>
       <c r="B14" s="20"/>
@@ -3417,9 +3424,8 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
-        <f t="shared" si="0"/>
         <v>42095</v>
       </c>
       <c r="B15" s="20"/>
@@ -3438,9 +3444,8 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
-        <f t="shared" si="0"/>
         <v>42125</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -3463,7 +3468,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>51</v>
@@ -3483,7 +3488,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>52</v>
@@ -3503,9 +3508,8 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
-        <f>EDATE(A16,1)</f>
         <v>42156</v>
       </c>
       <c r="B19" s="20"/>
@@ -3524,9 +3528,8 @@
       <c r="J19" s="12"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
-        <f t="shared" si="0"/>
         <v>42186</v>
       </c>
       <c r="B20" s="20"/>
@@ -3545,9 +3548,8 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
-        <f t="shared" si="0"/>
         <v>42217</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -3570,9 +3572,8 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
-        <f t="shared" si="0"/>
         <v>42248</v>
       </c>
       <c r="B22" s="20" t="s">
@@ -3595,9 +3596,8 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
-        <f t="shared" si="0"/>
         <v>42278</v>
       </c>
       <c r="B23" s="20" t="s">
@@ -3620,9 +3620,8 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
-        <f t="shared" si="0"/>
         <v>42309</v>
       </c>
       <c r="B24" s="20" t="s">
@@ -3647,7 +3646,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>60</v>
@@ -3667,9 +3666,8 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
-        <f>EDATE(A24,1)</f>
         <v>42339</v>
       </c>
       <c r="B26" s="20" t="s">
@@ -3692,8 +3690,8 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="61" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="48" t="s">
         <v>44</v>
       </c>
       <c r="B27" s="20"/>
@@ -3714,9 +3712,8 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
-        <f>EDATE(A26,1)</f>
         <v>42370</v>
       </c>
       <c r="B28" s="20"/>
@@ -3735,9 +3732,8 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
-        <f>EDATE(A28,1)</f>
         <v>42401</v>
       </c>
       <c r="B29" s="20" t="s">
@@ -3760,9 +3756,8 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
-        <f t="shared" si="0"/>
         <v>42430</v>
       </c>
       <c r="B30" s="20"/>
@@ -3781,9 +3776,8 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
-        <f t="shared" si="0"/>
         <v>42461</v>
       </c>
       <c r="B31" s="20" t="s">
@@ -3806,7 +3800,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>64</v>
@@ -3826,9 +3820,8 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
-        <f>EDATE(A31,1)</f>
         <v>42491</v>
       </c>
       <c r="B33" s="20" t="s">
@@ -3851,9 +3844,8 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
-        <f t="shared" si="0"/>
         <v>42522</v>
       </c>
       <c r="B34" s="20" t="s">
@@ -3876,9 +3868,8 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
-        <f t="shared" si="0"/>
         <v>42552</v>
       </c>
       <c r="B35" s="20"/>
@@ -3897,9 +3888,8 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
-        <f t="shared" si="0"/>
         <v>42583</v>
       </c>
       <c r="B36" s="20" t="s">
@@ -3922,9 +3912,8 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
-        <f>EDATE(A36,1)</f>
         <v>42614</v>
       </c>
       <c r="B37" s="20" t="s">
@@ -3947,7 +3936,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>68</v>
@@ -3965,11 +3954,11 @@
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="62">
+      <c r="K38" s="49">
         <v>45164</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>69</v>
@@ -3989,9 +3978,8 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
-        <f>EDATE(A37,1)</f>
         <v>42644</v>
       </c>
       <c r="B40" s="20" t="s">
@@ -4014,7 +4002,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>72</v>
@@ -4034,9 +4022,8 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
-        <f>EDATE(A40,1)</f>
         <v>42675</v>
       </c>
       <c r="B42" s="20" t="s">
@@ -4059,9 +4046,8 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
-        <f t="shared" si="0"/>
         <v>42705</v>
       </c>
       <c r="B43" s="20" t="s">
@@ -4084,7 +4070,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>74</v>
@@ -4104,8 +4090,8 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="61" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="48" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="20"/>
@@ -4126,9 +4112,8 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <f>EDATE(A43,1)</f>
         <v>42736</v>
       </c>
       <c r="B46" s="20" t="s">
@@ -4151,9 +4136,8 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
-        <f t="shared" si="0"/>
         <v>42767</v>
       </c>
       <c r="B47" s="20" t="s">
@@ -4176,9 +4160,8 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
-        <f t="shared" si="0"/>
         <v>42795</v>
       </c>
       <c r="B48" s="20" t="s">
@@ -4201,9 +4184,8 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
-        <f t="shared" si="0"/>
         <v>42826</v>
       </c>
       <c r="B49" s="20"/>
@@ -4222,9 +4204,8 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
-        <f>EDATE(A49,1)</f>
         <v>42856</v>
       </c>
       <c r="B50" s="20"/>
@@ -4243,9 +4224,8 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
-        <f t="shared" si="0"/>
         <v>42887</v>
       </c>
       <c r="B51" s="20"/>
@@ -4264,9 +4244,8 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
-        <f t="shared" si="0"/>
         <v>42917</v>
       </c>
       <c r="B52" s="20"/>
@@ -4285,9 +4264,8 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
-        <f t="shared" si="0"/>
         <v>42948</v>
       </c>
       <c r="B53" s="20" t="s">
@@ -4310,9 +4288,8 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
-        <f t="shared" si="0"/>
         <v>42979</v>
       </c>
       <c r="B54" s="20"/>
@@ -4331,9 +4308,8 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <f t="shared" si="0"/>
         <v>43009</v>
       </c>
       <c r="B55" s="20" t="s">
@@ -4356,7 +4332,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>72</v>
@@ -4376,9 +4352,8 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <f>EDATE(A55,1)</f>
         <v>43040</v>
       </c>
       <c r="B57" s="20"/>
@@ -4397,9 +4372,8 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <f t="shared" si="0"/>
         <v>43070</v>
       </c>
       <c r="B58" s="20" t="s">
@@ -4424,8 +4398,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="61" t="s">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="48" t="s">
         <v>46</v>
       </c>
       <c r="B59" s="20"/>
@@ -4446,9 +4420,8 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <f>EDATE(A58,1)</f>
         <v>43101</v>
       </c>
       <c r="B60" s="20"/>
@@ -4467,9 +4440,8 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <f t="shared" si="0"/>
         <v>43132</v>
       </c>
       <c r="B61" s="20" t="s">
@@ -4492,7 +4464,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>50</v>
@@ -4512,9 +4484,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <f>EDATE(A61,1)</f>
         <v>43160</v>
       </c>
       <c r="B63" s="20"/>
@@ -4533,9 +4504,8 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <f t="shared" si="0"/>
         <v>43191</v>
       </c>
       <c r="B64" s="20"/>
@@ -4554,9 +4524,8 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <f t="shared" si="0"/>
         <v>43221</v>
       </c>
       <c r="B65" s="20" t="s">
@@ -4581,7 +4550,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>50</v>
@@ -4603,7 +4572,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>85</v>
@@ -4625,7 +4594,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>86</v>
@@ -4643,11 +4612,11 @@
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="63" t="s">
+      <c r="K68" s="50" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>87</v>
@@ -4667,9 +4636,8 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <f>EDATE(A65,1)</f>
         <v>43252</v>
       </c>
       <c r="B70" s="20" t="s">
@@ -4690,9 +4658,8 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <f>EDATE(A70,1)</f>
         <v>43282</v>
       </c>
       <c r="B71" s="20"/>
@@ -4711,9 +4678,8 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <f t="shared" si="0"/>
         <v>43313</v>
       </c>
       <c r="B72" s="20" t="s">
@@ -4734,11 +4700,11 @@
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="62">
+      <c r="K72" s="49">
         <v>45153</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>90</v>
@@ -4758,9 +4724,8 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <f>EDATE(A72,1)</f>
         <v>43344</v>
       </c>
       <c r="B74" s="20"/>
@@ -4779,9 +4744,8 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <f t="shared" si="0"/>
         <v>43374</v>
       </c>
       <c r="B75" s="20" t="s">
@@ -4802,13 +4766,12 @@
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="62">
+      <c r="K75" s="49">
         <v>45209</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <f t="shared" si="0"/>
         <v>43405</v>
       </c>
       <c r="B76" s="20"/>
@@ -4827,9 +4790,8 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <f t="shared" si="0"/>
         <v>43435</v>
       </c>
       <c r="B77" s="20" t="s">
@@ -4850,12 +4812,12 @@
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="62">
+      <c r="K77" s="49">
         <v>45281</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="61" t="s">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="48" t="s">
         <v>47</v>
       </c>
       <c r="B78" s="20"/>
@@ -4876,9 +4838,8 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <f>EDATE(A77,1)</f>
         <v>43466</v>
       </c>
       <c r="B79" s="20" t="s">
@@ -4901,9 +4862,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <f t="shared" si="0"/>
         <v>43497</v>
       </c>
       <c r="B80" s="20" t="s">
@@ -4926,9 +4886,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <f>EDATE(A80,1)</f>
         <v>43525</v>
       </c>
       <c r="B81" s="20"/>
@@ -4947,9 +4906,8 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <f t="shared" si="0"/>
         <v>43556</v>
       </c>
       <c r="B82" s="20"/>
@@ -4968,9 +4926,8 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <f t="shared" si="0"/>
         <v>43586</v>
       </c>
       <c r="B83" s="20" t="s">
@@ -4989,13 +4946,12 @@
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="62">
+      <c r="K83" s="49">
         <v>45053</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <f t="shared" si="0"/>
         <v>43617</v>
       </c>
       <c r="B84" s="20"/>
@@ -5014,9 +4970,8 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <f t="shared" si="0"/>
         <v>43647</v>
       </c>
       <c r="B85" s="20"/>
@@ -5035,9 +4990,8 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <f t="shared" si="0"/>
         <v>43678</v>
       </c>
       <c r="B86" s="20"/>
@@ -5056,9 +5010,8 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <f t="shared" si="0"/>
         <v>43709</v>
       </c>
       <c r="B87" s="20"/>
@@ -5077,9 +5030,8 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <f t="shared" si="0"/>
         <v>43739</v>
       </c>
       <c r="B88" s="20"/>
@@ -5098,9 +5050,8 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <f t="shared" si="0"/>
         <v>43770</v>
       </c>
       <c r="B89" s="20"/>
@@ -5119,9 +5070,8 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <f t="shared" si="0"/>
         <v>43800</v>
       </c>
       <c r="B90" s="20" t="s">
@@ -5146,8 +5096,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="61" t="s">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="48" t="s">
         <v>97</v>
       </c>
       <c r="B91" s="20"/>
@@ -5164,9 +5114,8 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <f>EDATE(A90,1)</f>
         <v>43831</v>
       </c>
       <c r="B92" s="20" t="s">
@@ -5189,184 +5138,245 @@
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="40">
+        <f>EDATE(A92,1)</f>
+        <v>43862</v>
+      </c>
       <c r="B93" s="20"/>
-      <c r="C93" s="13"/>
+      <c r="C93" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D93" s="39"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G93" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="40">
+        <f t="shared" ref="A94:A138" si="0">EDATE(A93,1)</f>
+        <v>43891</v>
+      </c>
       <c r="B94" s="20"/>
-      <c r="C94" s="13"/>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="40">
+        <f t="shared" si="0"/>
+        <v>43922</v>
+      </c>
       <c r="B95" s="20"/>
-      <c r="C95" s="13"/>
+      <c r="C95" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G95" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="40">
+        <f t="shared" si="0"/>
+        <v>43952</v>
+      </c>
       <c r="B96" s="20"/>
-      <c r="C96" s="13"/>
+      <c r="C96" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D96" s="39"/>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G96" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H96" s="39"/>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="40">
+        <f t="shared" si="0"/>
+        <v>43983</v>
+      </c>
       <c r="B97" s="20"/>
-      <c r="C97" s="13"/>
+      <c r="C97" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G97" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="40">
+        <f t="shared" si="0"/>
+        <v>44013</v>
+      </c>
       <c r="B98" s="20"/>
-      <c r="C98" s="13"/>
+      <c r="C98" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D98" s="39"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G98" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H98" s="39"/>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="40">
+        <f t="shared" si="0"/>
+        <v>44044</v>
+      </c>
       <c r="B99" s="20"/>
-      <c r="C99" s="13"/>
+      <c r="C99" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D99" s="39"/>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G99" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H99" s="39"/>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="40">
+        <f t="shared" si="0"/>
+        <v>44075</v>
+      </c>
       <c r="B100" s="20"/>
-      <c r="C100" s="13"/>
+      <c r="C100" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D100" s="39"/>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G100" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H100" s="39"/>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="40">
+        <f t="shared" si="0"/>
+        <v>44105</v>
+      </c>
       <c r="B101" s="20"/>
-      <c r="C101" s="13"/>
+      <c r="C101" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D101" s="39"/>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G101" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="40">
+        <f t="shared" si="0"/>
+        <v>44136</v>
+      </c>
       <c r="B102" s="20"/>
-      <c r="C102" s="13"/>
+      <c r="C102" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D102" s="39"/>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G102" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H102" s="39"/>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="39"/>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="40">
+        <f t="shared" si="0"/>
+        <v>44166</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C103" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D103" s="39">
+        <v>5</v>
+      </c>
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
-      <c r="G103" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G103" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H103" s="39"/>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="48" t="s">
+        <v>102</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -5381,200 +5391,266 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="40">
+        <f>EDATE(A103,1)</f>
+        <v>44197</v>
+      </c>
       <c r="B105" s="20"/>
-      <c r="C105" s="13"/>
+      <c r="C105" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D105" s="39"/>
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
-      <c r="G105" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G105" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="40">
+        <f t="shared" si="0"/>
+        <v>44228</v>
+      </c>
       <c r="B106" s="20"/>
-      <c r="C106" s="13"/>
+      <c r="C106" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D106" s="39"/>
       <c r="E106" s="9"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G106" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H106" s="39"/>
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="40">
+        <f t="shared" si="0"/>
+        <v>44256</v>
+      </c>
       <c r="B107" s="20"/>
-      <c r="C107" s="13"/>
+      <c r="C107" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D107" s="39"/>
       <c r="E107" s="9"/>
       <c r="F107" s="20"/>
-      <c r="G107" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G107" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H107" s="39"/>
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="40">
+        <f t="shared" si="0"/>
+        <v>44287</v>
+      </c>
       <c r="B108" s="20"/>
-      <c r="C108" s="13"/>
+      <c r="C108" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D108" s="39"/>
       <c r="E108" s="9"/>
       <c r="F108" s="20"/>
-      <c r="G108" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G108" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H108" s="39"/>
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="40">
+        <f t="shared" si="0"/>
+        <v>44317</v>
+      </c>
       <c r="B109" s="20"/>
-      <c r="C109" s="13"/>
+      <c r="C109" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D109" s="39"/>
       <c r="E109" s="9"/>
       <c r="F109" s="20"/>
-      <c r="G109" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G109" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H109" s="39"/>
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="40">
+        <f t="shared" si="0"/>
+        <v>44348</v>
+      </c>
       <c r="B110" s="20"/>
-      <c r="C110" s="13"/>
+      <c r="C110" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D110" s="39"/>
       <c r="E110" s="9"/>
       <c r="F110" s="20"/>
-      <c r="G110" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G110" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H110" s="39"/>
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="40">
+        <f t="shared" si="0"/>
+        <v>44378</v>
+      </c>
       <c r="B111" s="20"/>
-      <c r="C111" s="13"/>
+      <c r="C111" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D111" s="39"/>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G111" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="40"/>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="40">
+        <f t="shared" si="0"/>
+        <v>44409</v>
+      </c>
       <c r="B112" s="20"/>
-      <c r="C112" s="13"/>
+      <c r="C112" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D112" s="39"/>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G112" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H112" s="39"/>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="40"/>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="40">
+        <f t="shared" si="0"/>
+        <v>44440</v>
+      </c>
       <c r="B113" s="20"/>
-      <c r="C113" s="13"/>
+      <c r="C113" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D113" s="39"/>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G113" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H113" s="39"/>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="40"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="40">
+        <f t="shared" si="0"/>
+        <v>44470</v>
+      </c>
       <c r="B114" s="20"/>
-      <c r="C114" s="13"/>
+      <c r="C114" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D114" s="39"/>
       <c r="E114" s="9"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G114" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H114" s="39"/>
       <c r="I114" s="9"/>
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="40"/>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="40">
+        <f t="shared" si="0"/>
+        <v>44501</v>
+      </c>
       <c r="B115" s="20"/>
-      <c r="C115" s="13"/>
+      <c r="C115" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D115" s="39"/>
       <c r="E115" s="9"/>
       <c r="F115" s="20"/>
-      <c r="G115" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G115" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H115" s="39"/>
       <c r="I115" s="9"/>
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="40"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="39"/>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="40">
+        <f t="shared" si="0"/>
+        <v>44531</v>
+      </c>
+      <c r="B116" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C116" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D116" s="39">
+        <v>5</v>
+      </c>
       <c r="E116" s="9"/>
       <c r="F116" s="20"/>
-      <c r="G116" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G116" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H116" s="39"/>
       <c r="I116" s="9"/>
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="40"/>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="48" t="s">
+        <v>103</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -5589,200 +5665,266 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="40"/>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="40">
+        <f>EDATE(A116,1)</f>
+        <v>44562</v>
+      </c>
       <c r="B118" s="20"/>
-      <c r="C118" s="13"/>
+      <c r="C118" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D118" s="39"/>
       <c r="E118" s="9"/>
       <c r="F118" s="20"/>
-      <c r="G118" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G118" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H118" s="39"/>
       <c r="I118" s="9"/>
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="40"/>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="40">
+        <f t="shared" si="0"/>
+        <v>44593</v>
+      </c>
       <c r="B119" s="20"/>
-      <c r="C119" s="13"/>
+      <c r="C119" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D119" s="39"/>
       <c r="E119" s="9"/>
       <c r="F119" s="20"/>
-      <c r="G119" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G119" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H119" s="39"/>
       <c r="I119" s="9"/>
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="40"/>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="40">
+        <f t="shared" si="0"/>
+        <v>44621</v>
+      </c>
       <c r="B120" s="20"/>
-      <c r="C120" s="13"/>
+      <c r="C120" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D120" s="39"/>
       <c r="E120" s="9"/>
       <c r="F120" s="20"/>
-      <c r="G120" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G120" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H120" s="39"/>
       <c r="I120" s="9"/>
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="40"/>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="40">
+        <f t="shared" si="0"/>
+        <v>44652</v>
+      </c>
       <c r="B121" s="20"/>
-      <c r="C121" s="13"/>
+      <c r="C121" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D121" s="39"/>
       <c r="E121" s="9"/>
       <c r="F121" s="20"/>
-      <c r="G121" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G121" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H121" s="39"/>
       <c r="I121" s="9"/>
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="40">
+        <f t="shared" si="0"/>
+        <v>44682</v>
+      </c>
       <c r="B122" s="20"/>
-      <c r="C122" s="13"/>
+      <c r="C122" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D122" s="39"/>
       <c r="E122" s="9"/>
       <c r="F122" s="20"/>
-      <c r="G122" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G122" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H122" s="39"/>
       <c r="I122" s="9"/>
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="40"/>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="40">
+        <f t="shared" si="0"/>
+        <v>44713</v>
+      </c>
       <c r="B123" s="20"/>
-      <c r="C123" s="13"/>
+      <c r="C123" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D123" s="39"/>
       <c r="E123" s="9"/>
       <c r="F123" s="20"/>
-      <c r="G123" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G123" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H123" s="39"/>
       <c r="I123" s="9"/>
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="40"/>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="40">
+        <f t="shared" si="0"/>
+        <v>44743</v>
+      </c>
       <c r="B124" s="20"/>
-      <c r="C124" s="13"/>
+      <c r="C124" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D124" s="39"/>
       <c r="E124" s="9"/>
       <c r="F124" s="20"/>
-      <c r="G124" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G124" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H124" s="39"/>
       <c r="I124" s="9"/>
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="40"/>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="40">
+        <f t="shared" si="0"/>
+        <v>44774</v>
+      </c>
       <c r="B125" s="20"/>
-      <c r="C125" s="13"/>
+      <c r="C125" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D125" s="39"/>
       <c r="E125" s="9"/>
       <c r="F125" s="20"/>
-      <c r="G125" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G125" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H125" s="39"/>
       <c r="I125" s="9"/>
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="40"/>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="40">
+        <f t="shared" si="0"/>
+        <v>44805</v>
+      </c>
       <c r="B126" s="20"/>
-      <c r="C126" s="13"/>
+      <c r="C126" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D126" s="39"/>
       <c r="E126" s="9"/>
       <c r="F126" s="20"/>
-      <c r="G126" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G126" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H126" s="39"/>
       <c r="I126" s="9"/>
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="40"/>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="40">
+        <f t="shared" si="0"/>
+        <v>44835</v>
+      </c>
       <c r="B127" s="20"/>
-      <c r="C127" s="13"/>
+      <c r="C127" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D127" s="39"/>
       <c r="E127" s="9"/>
       <c r="F127" s="20"/>
-      <c r="G127" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G127" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H127" s="39"/>
       <c r="I127" s="9"/>
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="40"/>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="40">
+        <f t="shared" si="0"/>
+        <v>44866</v>
+      </c>
       <c r="B128" s="20"/>
-      <c r="C128" s="13"/>
+      <c r="C128" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D128" s="39"/>
       <c r="E128" s="9"/>
       <c r="F128" s="20"/>
-      <c r="G128" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G128" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H128" s="39"/>
       <c r="I128" s="9"/>
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="40"/>
-      <c r="B129" s="20"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="39"/>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="40">
+        <f t="shared" si="0"/>
+        <v>44896</v>
+      </c>
+      <c r="B129" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C129" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D129" s="39">
+        <v>5</v>
+      </c>
       <c r="E129" s="9"/>
       <c r="F129" s="20"/>
-      <c r="G129" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G129" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H129" s="39"/>
       <c r="I129" s="9"/>
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="40"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="48" t="s">
+        <v>104</v>
+      </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
       <c r="D130" s="39"/>
@@ -5797,73 +5939,98 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="40"/>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="40">
+        <f>EDATE(A129,1)</f>
+        <v>44927</v>
+      </c>
       <c r="B131" s="20"/>
-      <c r="C131" s="13"/>
+      <c r="C131" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D131" s="39"/>
       <c r="E131" s="9"/>
       <c r="F131" s="20"/>
-      <c r="G131" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G131" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H131" s="39"/>
       <c r="I131" s="9"/>
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="40"/>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="40">
+        <f t="shared" si="0"/>
+        <v>44958</v>
+      </c>
       <c r="B132" s="20"/>
-      <c r="C132" s="13"/>
+      <c r="C132" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D132" s="39"/>
       <c r="E132" s="9"/>
       <c r="F132" s="20"/>
-      <c r="G132" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G132" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H132" s="39"/>
       <c r="I132" s="9"/>
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="40"/>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="40">
+        <f t="shared" si="0"/>
+        <v>44986</v>
+      </c>
       <c r="B133" s="20"/>
-      <c r="C133" s="13"/>
+      <c r="C133" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D133" s="39"/>
       <c r="E133" s="9"/>
       <c r="F133" s="20"/>
-      <c r="G133" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G133" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H133" s="39"/>
       <c r="I133" s="9"/>
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="40"/>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="40">
+        <f t="shared" si="0"/>
+        <v>45017</v>
+      </c>
       <c r="B134" s="20"/>
-      <c r="C134" s="13"/>
+      <c r="C134" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D134" s="39"/>
       <c r="E134" s="9"/>
       <c r="F134" s="20"/>
-      <c r="G134" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G134" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H134" s="39"/>
       <c r="I134" s="9"/>
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="40"/>
-      <c r="B135" s="20"/>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="40">
+        <f t="shared" si="0"/>
+        <v>45047</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C135" s="13"/>
       <c r="D135" s="39"/>
       <c r="E135" s="9"/>
@@ -5875,10 +6042,15 @@
       <c r="H135" s="39"/>
       <c r="I135" s="9"/>
       <c r="J135" s="11"/>
-      <c r="K135" s="20"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="40"/>
+      <c r="K135" s="50">
+        <v>45065</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="40">
+        <f t="shared" si="0"/>
+        <v>45078</v>
+      </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
       <c r="D136" s="39"/>
@@ -5893,8 +6065,11 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="40"/>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="40">
+        <f t="shared" si="0"/>
+        <v>45108</v>
+      </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
       <c r="D137" s="39"/>
@@ -5909,8 +6084,11 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="40"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="40">
+        <f t="shared" si="0"/>
+        <v>45139</v>
+      </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
       <c r="D138" s="39"/>
@@ -5925,7 +6103,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5941,7 +6119,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5957,7 +6135,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5973,7 +6151,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5989,7 +6167,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -6005,7 +6183,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -6021,7 +6199,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -6037,7 +6215,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -6053,7 +6231,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -6069,7 +6247,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -6085,7 +6263,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -6101,7 +6279,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -6117,21 +6295,69 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A151" s="41"/>
-      <c r="B151" s="15"/>
-      <c r="C151" s="42"/>
-      <c r="D151" s="43"/>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="40"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="39"/>
       <c r="E151" s="9"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="42" t="str">
+      <c r="F151" s="20"/>
+      <c r="G151" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H151" s="43"/>
+      <c r="H151" s="39"/>
       <c r="I151" s="9"/>
-      <c r="J151" s="12"/>
-      <c r="K151" s="15"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="20"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="40"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="39"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H152" s="39"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="20"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="40"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="39"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H153" s="39"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="20"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="41"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="42"/>
+      <c r="D154" s="43"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H154" s="43"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6182,34 +6408,34 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="58" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="J1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6238,7 +6464,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>4.0110000000000001</v>
       </c>
@@ -6268,17 +6494,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6292,14 +6518,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6326,7 +6552,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6352,7 +6578,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6378,7 +6604,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6404,7 +6630,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6430,7 +6656,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6456,7 +6682,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6482,7 +6708,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6508,7 +6734,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6528,7 +6754,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6548,7 +6774,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6568,7 +6794,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6589,7 +6815,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6610,7 +6836,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6631,7 +6857,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6652,7 +6878,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6673,7 +6899,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6694,7 +6920,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6715,7 +6941,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6736,7 +6962,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6757,7 +6983,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6778,7 +7004,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6799,7 +7025,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6820,7 +7046,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6841,7 +7067,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6862,7 +7088,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6883,7 +7109,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6904,7 +7130,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6925,7 +7151,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6946,7 +7172,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6967,7 +7193,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6988,7 +7214,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6997,7 +7223,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7006,7 +7232,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7015,7 +7241,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7024,7 +7250,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7033,7 +7259,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7042,7 +7268,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7051,7 +7277,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7060,7 +7286,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7069,7 +7295,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7078,7 +7304,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7087,7 +7313,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7096,7 +7322,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7105,7 +7331,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7114,7 +7340,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7123,7 +7349,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7132,7 +7358,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7141,7 +7367,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7150,7 +7376,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7159,7 +7385,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7168,7 +7394,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7177,7 +7403,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7186,7 +7412,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7195,7 +7421,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7204,7 +7430,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7213,7 +7439,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7222,7 +7448,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7231,7 +7457,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7240,7 +7466,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7249,7 +7475,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
